--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
@@ -18,6 +18,9 @@
     <sheet name="gaussian_sr_0.75" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="inverse_sr_0.75" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="powerlaw_sr_0.75" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="rational_quadratic_sr_0.75" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="generalized_gaussian_sr_0.75" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sigmoid_sr_0.75" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1479,6 +1482,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.89085545722715</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1999987310892417</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9289085545722713</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9249251601560162</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.57244439830795</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1940923731733013</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9457244439830795</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9423585950842306</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1090839326783074</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9647626938441979</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.26843657817109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2441682247085737</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9126843657817109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9090521996226538</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>89.49869808562357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2244718009460485</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8949869808562358</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8921748701672939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.06194690265487</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2252485835672511</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9106194690265486</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9066688223315248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1854687502916931</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9230088495575222</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9232496269088475</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.41592920353983</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2393921180878351</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9141592920353983</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9127786154705259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>94.69026548672566</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1633608428116228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9469026548672567</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9456151184003438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.39233038348083</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1731663695389822</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9339233038348083</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9308660153868663</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.13569321533923</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4119307860660532</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8613569321533923</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8578768956304845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86.01769911504425</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4699337915963649</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8601769911504424</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8439758912614537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98.20058997050147</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05942796195543755</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9820058997050147</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9820098096297208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.84955752212389</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03497722479983736</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.988495575221239</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9886013641545051</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.03834808259587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2124064371465541</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9303834808259588</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9199538671124603</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.6607900299022</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.209808528563807</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9266079002990222</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9229913030107417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94.24778761061947</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1640193892638005</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9424778761061947</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9399158471413809</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.18930959610377</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2059965902224007</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9418930959610379</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9388495040338878</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.16519174041298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1099996973092857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9616519174041297</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9612346417908662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1944552404866651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9218289085545723</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9202994870299822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>91.53392330383481</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1965490973690369</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9153392330383481</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9128939990748448</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.20961253990086</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2167748900857987</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9120961253990088</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9072179394708251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.27138643067846</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2092776313888559</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9227138643067846</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9186885124148138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2338100741590703</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9147795256233067</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>94.15929203539824</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1683065003577819</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9415929203539823</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9384341685775397</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.6283185840708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.170748060474701</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.936283185840708</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9345823652345198</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.71681415929204</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5015608610205768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8342047339056796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86.10619469026548</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5870843268513758</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8610619469026549</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8432845662398973</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98.46607669616519</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04677991103759874</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9846607669616519</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9847047681565018</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>99.11504424778761</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03053793324274921</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9911873145144752</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.5693215339233</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1857756979640574</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.935693215339233</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9275203839486321</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.81420542853601</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2147783934155836</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.92814205428536</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9245198504771436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.1858407079646</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2025349762193704</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.931858407079646</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9276805722377262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.27745914757048</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2180257891068597</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9427745914757049</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9387777255125693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.75516224188792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09879534278491822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.967551622418879</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9672741625712551</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.47197640117994</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2382149568433306</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9047197640117994</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9003589795610818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>90.91445427728613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2037665982876206</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9091445427728614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9092912565782155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.17716416231974</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3346949776401743</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9017716416231973</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.888276894865025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2020518464761457</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9212880376445713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.212548366880128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9218289085545723</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9177806647415734</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>93.952802359882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1849236898684467</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9395280235988202</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9345836158517338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.59882005899705</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1631198498261559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9359882005899705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9353683330879206</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.81120943952803</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4377513070844088</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8581120943952802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8504653948829309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.30973451327434</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6211817990522832</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8530973451327434</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8375808653260581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.78761061946902</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06045183841652033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9778761061946902</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9776740495831385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>99.08554572271387</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02819041826365378</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9908554572271386</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9909416709799771</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.1858407079646</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2015513877083474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.931858407079646</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9200119887285234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.58999356972524</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2271868762972243</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9258999356972523</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9211569474768201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
@@ -63,6 +63,13 @@
     <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
     <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
     <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18674,6 +18681,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.7960016955164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9469913790623347</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.577960016955164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5666111783255993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.409718077146</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8963213404019674</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53409718077146</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5266337830847148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65.98672998901375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7889451131224632</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6598672998901375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6591243803060202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.92263773908079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9244433999061584</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5692263773908079</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5643445374902839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.27026185347624</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.887840390453736</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6227026185347624</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.603649968994223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>73.60046367183108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6276883505284786</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7360046367183107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7360297777477263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49.95423835846331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.076261309782664</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.499542383584633</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4914255189232944</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>57.17341845517694</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9465111126502356</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5717341845517695</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5672227757429054</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.616095294942</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8689668707549572</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.60616095294942</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5939296668958671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.67211654080053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7807408904035886</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6667211654080052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6646543530696564</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.16193911712039</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9539799965918064</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6016193911712039</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6024146800073081</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.67555082656425</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9933559596538544</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5367555082656424</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5248738997357407</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.51966712514813</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4123246584708492</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8351966712514814</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8326188967951251</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.64597444614573</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3739513865361611</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8464597444614572</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8462340683448748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.58279915916228</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2541845704273631</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9158279915916229</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9157489653826779</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.19917415663919</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7821671152497746</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6519917415663918</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6463677633897345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.52947689858909</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9065734992424647</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5752947689858908</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5692145365193134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.01807974117423</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9428056870897612</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5001807974117423</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4856905343337132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.56712428308204</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8625827501217523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5956712428308204</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5861619186762214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.62429605792438</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.019602081179619</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4862429605792437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4737451706970023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.18679227328956</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9109190007050832</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6318679227328956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6213160596291536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.42902620264881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7968158900737763</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6542902620264881</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6508560434484449</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.32925890362374</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.081662701567014</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5232925890362374</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5005460679521423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.46404380660732</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.017475974559784</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5346404380660733</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5244162523911317</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.34034031436259</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.027602368593216</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5334034031436258</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5200727672070697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.26414588361492</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8408916215101877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6526414588361491</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.649700962930466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.85409908390211</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.042516049742699</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5385409908390211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5311329736579568</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.47565290357183</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.011708277463913</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5547565290357184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5432494364132474</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84.3235668128617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.423144271519656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8432356681286171</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.841030066470686</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.90953208937793</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4774863893787066</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8190953208937793</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8165807361989581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.48075675395117</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.361105787292278</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8548075675395115</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.854576310286123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.9864128005721</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.848192823335994</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.619864128005721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6112193224541086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.41008140208826</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9761752992868423</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5541008140208825</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5457079623262177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.52094741303991</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9305216153462729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5152094741303991</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4849835487204441</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.95199785465272</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8498763968547186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6095199785465273</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6004583692809902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.04808000069205</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.04129758477211</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4804808000069204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4771303806096526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.7802230123098</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8843925987680754</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6378022301230979</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6240594477743049</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.04848657860362</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7890960643688837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6504848657860363</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6447680624587029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.71064628586753</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0838271210591</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5071064628586752</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.494878164899719</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.61292052699417</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.024822682142258</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5361292052699418</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5335641764408939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.40124049516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.048090998331706</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5340124049516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5243394768301941</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.88291421206065</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8088379045327505</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6488291421206066</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6459134225234173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52.32277095822629</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.12234346618255</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5232277095822628</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.512097514379698</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.56761736693225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9607387701670328</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5656761736693224</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5594632803039012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.72909800257789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4018718479201198</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8372909800257787</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8364031031740552</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.08462010917049</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4614616341888905</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8208462010917049</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8212186932220547</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.33586795733528</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3730129704655458</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8633586795733527</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8627009249528468</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.89383414504739</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8504244636257904</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6189383414504739</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6111791018598061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -19017,6 +20074,1406 @@
       </c>
       <c r="E17" t="n">
         <v>0.9216403478567928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60.33408593499944</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8968645493189493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6033408593499944</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5961031676644577</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.60614711199924</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9545886953671774</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5060614711199924</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4982189659204576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>68.90466180503292</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7542689618964989</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6890466180503292</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6888235203826407</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>54.35592003391033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9801721582810086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5435592003391033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5387845145981215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.45453680395158</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8660500347614288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6445453680395159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6325421003233471</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.4143115424874</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6136244078477224</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.744143115424874</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7386114893789909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46.68318930094551</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.111109451452891</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4668318930094551</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4606640605228816</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>56.79703111618612</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.06960045893987</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5679703111618613</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.546804614669786</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.55340444121489</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9636686245600382</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5355340444121489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.532065403913545</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.79460894990441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7922851244608561</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6679460894990441</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6690530271218006</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.98909160113842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9823130478461584</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5898909160113842</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5880204911298266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.53047171688337</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.003507157166799</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5253047171688336</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5212927600721556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.16776096679037</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4007147043943405</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8316776096679037</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8319092758138622</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.99944636199275</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3727419975834588</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8599944636199275</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8601605867010192</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.40009861677004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2302758798313638</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9140009861677004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9139607847189506</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.59898442028046</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7994523502472375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6459898442028045</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6411343175287895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.64191731762385</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9541004757086435</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5564191731762385</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5439226573540402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.5523663699513</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8991961325208345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.535523663699513</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5235792134191114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.86229119629063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8441562354564667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6086229119629063</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6001810583602867</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.37445825655931</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.057935484250387</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4737445825655932</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4685351465142775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.30251991799237</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.951783341045181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6130251991799237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5966080231819495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.76147717540809</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7815352469682694</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6676147717540809</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6615519229005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53.07052829176723</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.072949598232905</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5307052829176724</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5207253963971812</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.54888883121826</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.05676971077919</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5154888883121826</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5061522200034905</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.80832879177156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.007695707678795</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5280832879177155</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5209255653549966</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.26154205486206</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8091211741169293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6426154205486206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6358472228755025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52.22977707419615</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.093777443965276</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5222977707419615</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5140110667414259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.55844773743718</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9406036794185638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5655844773743717</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5601569272722643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84.14173132985579</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4207816852256656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.841417313298558</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8390856085810908</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.23160234950129</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4319364406168461</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.832316023495013</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8319749067308508</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.97582159015217</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3646288937539793</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8497582159015217</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8475659922032163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.88811321897249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8457980833158623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6188811321897248</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6113881951926791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.58708985371845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9344269454479217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5758708985371845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5703089899951312</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.31531414631614</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9243112479647001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5031531414631615</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4878945438700766</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.68408031211343</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.851763941347599</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5968408031211343</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5852842102614024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.90231749409597</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.048792761564255</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4790231749409597</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4723487488153433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.06705940362806</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9072160991529623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6206705940362806</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6057375890356379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.20533914653241</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7499897693594296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6720533914653241</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6669501489707487</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.36325573750638</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.116438283522924</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5236325573750638</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5028206127502063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.40400003460238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.061966019868851</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5240400003460237</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.517465575706942</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.12930907706814</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.076621082425117</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4812930907706814</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4791548353999001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.20200866789505</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8602160225311914</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6220200866789505</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6202566551010195</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.64518724210417</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.081360453367233</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5364518724210418</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5257291882384388</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.74494589053538</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9899755100409189</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5574494589053539</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5399486361075581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84.58853450289362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3772782215693345</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8458853450289363</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8457791523978162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.99143591207536</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5034389187892278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7999143591207536</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8013469827358242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.38776286992102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.38402889543601</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8538776286992101</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8520900373737621</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.28117601940039</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8578549448258451</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.612811760194004</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6048743937839872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.55567089680707</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9932732711235681</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5555567089680706</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5443123548426898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.08262182198808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9208278477191925</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5108262182198808</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.496014409211268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.45138798778536</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8659163375695547</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6045138798778537</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5866025305822602</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.43103314042509</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.022548262278239</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4743103314042509</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4697278579768146</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.13072777446172</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8957247580091158</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6213072777446171</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6065655155058992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.14235417261395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7416001088917256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6614235417261395</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6545677267079021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.30320331490757</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.166195571422577</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5030320331490756</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4895082948910399</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.76490281057795</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.054942698280017</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5276490281057795</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5103157752577989</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.73143366292096</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.020698295036952</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5373143366292096</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5287601032051061</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.55911383316464</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8518506303429604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6355911383316465</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6273883604018694</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.32123115251862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.024751398960749</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5432123115251862</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5394208713518116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.70938329916348</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9768426219622294</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5470938329916348</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5422959332287498</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84.43931175875224</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3941892403488358</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8443931175875224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8416056850787049</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.61040320417996</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4646103235582511</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8261040320417997</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8253938699299322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.03759548092977</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3505745791868927</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8603759548092977</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8598977344423548</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.68469162074643</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8496363963127237</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6168469162074643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.60815846817428</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_ratio_rcm.xlsx
@@ -28,6 +28,20 @@
     <sheet name="rational_quadratic_sr_0.5" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="generalized_gaussian_sr_0.5" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="sigmoid_sr_0.5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="exponential_sr_0.4" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="gaussian_sr_0.4" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="inverse_sr_0.4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="powerlaw_sr_0.4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="rational_quadratic_sr_0.4" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="generalized_gaussian_sr_0.4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="sigmoid_sr_0.4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="exponential_sr_0.3" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="gaussian_sr_0.3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="inverse_sr_0.3" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="powerlaw_sr_0.3" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="rational_quadratic_sr_0.3" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="generalized_gaussian_sr_0.3" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sigmoid_sr_0.3" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5339,6 +5353,2806 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.55162241887906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3328551011557768</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8755162241887906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8734259322443908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.93041462296387</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3406925008088971</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8593041462296387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8558954027878993</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.06784660766962</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1725816937512718</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9306784660766961</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9296484356257079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2701767114500399</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8963104452360776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.98525073746313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4232522361868177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8498525073746312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8423312996098453</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.7669616519174</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2988693504662175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9076696165191741</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9032349084121478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.66961651917404</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4502962046996496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8766961651917404</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8688695998960594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.17109144542772</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2835365877758401</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8817109144542773</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8815137904391437</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.17109144542772</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2801528545174127</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8817109144542773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8789526276724704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2847726954651686</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8996442123989736</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4964015806651635</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8541773967145714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.80530973451327</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5202068951136123</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8380530973451327</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8288459786669915</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.93215339233038</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1071631621171643</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9693215339233039</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9689315539141458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.72566371681417</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0867345736194693</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9672566371681416</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9678874518860902</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.99410029498526</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08535309115047009</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9799410029498524</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9798341799805653</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.82702272511007</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2955363492628648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.898270227251101</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8953002143656722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.76401179941004</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2570460702457543</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8976401179941004</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8954371938537495</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.91323454355141</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2697179513100613</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8991323454355141</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8974815697448373</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.30678466076697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1657622654626418</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9430678466076696</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9426732797002926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.79351032448378</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2693399526537784</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8979351032448377</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8947844359764978</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.51327433628319</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3641965109563898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8451327433628318</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8410380275741129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.82613171394216</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2327673175643819</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9082613171394216</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9066416115215941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.40412979351032</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3577680053499838</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8740412979351031</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.870678231422491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2560565484406349</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9023813546615018</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.79056047197641</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2901580458545747</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.887905604719764</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8793476820891708</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.67551622418878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.313086300813787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8967551622418879</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8910811000813258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.63421828908555</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.469577552646903</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8563421828908554</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8433698035936723</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.12389380530973</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5064919500611722</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8212389380530973</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8115605789086036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09375969790792928</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9678466076696164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9680688100995253</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.02359882005899</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05498848681305996</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.98023598820059</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9805426565374253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1077273261685453</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9646893131361344</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.30494496780538</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2672295988166398</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9030494496780538</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8993183765933955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.20648967551622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.250834418592179</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9020648967551622</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9013502211491387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.01873718630785</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4003677585317443</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8601873718630785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8526120218606337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.36578171091446</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1607557002966739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9436578171091445</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9434631537997984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2552506203472149</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8977830819767991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.10914454277287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3227265820974329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8710914454277287</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8710805519126014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.85840707964601</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2295908311983415</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9185840707964601</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9176429569202691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4661218763173868</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8510174550687036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.59292035398229</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2227599386184011</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9159292035398231</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9152906379253757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.08259587020649</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3652649749245029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8808259587020648</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8654254213940813</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2851264703579848</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8994414354087878</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.75221238938053</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5041166016773786</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8575221238938052</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8468901119742999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.88495575221239</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5032208000726921</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.808849557522124</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8042873505220827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.31563421828909</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0826645990244136</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9731563421828909</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9731373127415301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.70206489675516</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0411007901918462</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9870206489675516</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9870424590733082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.54867256637168</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1020600771312578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9654867256637167</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9646139364956803</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.32061984388561</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.27946413595863</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9032061984388561</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8994052072148727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.57817109144543</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3255947170779109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8657817109144542</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8655516395643849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.39528023598821</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3735117715240145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.843952802359882</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8365455287876029</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2228653419675538</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9124278616590573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.94690265486726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2143002389221996</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9194690265486726</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.918197120239537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.16814159292036</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3213241206807045</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8716814159292035</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8681172620051179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.11799410029498</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2972502280725166</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9011799410029498</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.897045960039738</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.25368731563421</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3895828212494962</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8625368731563421</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8589316912712199</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.69911504424779</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3077668589695047</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.876991150442478</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8766867966278659</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.72861356932154</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3073801545232224</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8772861356932153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8670405643252931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.52212389380531</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3446210360833599</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8752212389380531</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8729794670469125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.27728613569322</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4927287545132761</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8427728613569322</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.846224093512876</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.06194690265487</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5489434173602301</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8106194690265486</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.790182007231628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.75516224188792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1067125655026151</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.967551622418879</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9674594972777382</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.25663716814159</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07315069154528828</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9725663716814159</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9727169322666507</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.90560471976401</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07200701054245352</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9790560471976401</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9786935209037984</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.19174041297934</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2931826485689564</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8919174041297935</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8885866628506282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.15044247787611</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2345696736578247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.911504424778761</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9094478338075133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.34894765525652</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3040394142949178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8834894765525654</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8774132404153864</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.66076696165192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1624853649710228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9466076696165192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9463226740085766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2584015270598078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8990237459121053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.10914454277285</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3391143765829231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8710914454277287</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8695951927978361</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2156023744309399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9205819350362837</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.5221238938053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4007252340437845</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8752212389380531</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8659125037220923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.43952802359881</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2519264313955015</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8943952802359882</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8932260474039758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.14159292035399</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3447269722547692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8814159292035398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8654849447356791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.58407079646017</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.296066075413061</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8858407079646018</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8838074783290679</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.74926253687315</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5043381751767204</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8474926253687315</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8345054521868734</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.77581120943952</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.557649073319044</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8377581120943953</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8224157670646276</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.72861356932154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08268773915985245</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9772861356932154</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9772868703742299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.81710914454277</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06238574092227887</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9781710914454276</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9784346471353743</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.57522123893804</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1373855098642404</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9529314081599928</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.46220123011445</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2768069121697793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9046220123011446</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.899759316072641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.97345132743364</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2312760547383126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9097345132743364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9078513514077871</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.61859531656849</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2809760453072764</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8961859531656848</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8903758283828882</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.157807198940039</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9441439943691441</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2177436255452145</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9125401850213544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.75516224188792</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3180655417153806</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8675516224188791</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8645206885813217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.71091445427729</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2212789232765014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9171091445427729</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9157030446504431</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.4896755162242</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4188172020115114</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.864896755162242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8547311298270348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.44542772861357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2270983162122623</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9144542772861357</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9137656545708757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.87905604719764</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3033308905200102</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8887905604719764</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8807253127458111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.11799410029498</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2637331123686939</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9011799410029498</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9000693119175194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4911998853300854</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8404529942127956</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.50737463126845</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4984200820026065</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8250737463126845</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8149062616641419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.02064896755162</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1061090773180088</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9702064896755163</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.970133218348353</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.43657817109144</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04919283122650692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9843657817109145</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9845506945723426</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.54867256637168</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1189292626240785</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9654867256637167</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9647561124865776</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.71006957960996</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2602652032757659</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9071006957960998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9039483855172261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.87610619469027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.295266798043546</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8787610619469026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8786375271051631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.25368731563421</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3334310155090255</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8625368731563421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8577789899990531</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1607907321944367</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9372927723170628</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2315245279402006</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9111401328686337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3313953576784116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8651917404129794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8612563533523279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2290390460189277</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.921796857874036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.19174041297936</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4782027509373924</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8519174041297936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.844187028728278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.90855457227138</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2800369603035506</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8890855457227138</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8883492100957808</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.047197640118</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3518726409490531</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8604719764011799</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8567691968779341</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.7669616519174</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.247400388669242</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9076696165191741</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9076314823491763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.84070796460176</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4282675705122528</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8549824576460482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.21533923303835</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.468206110195024</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8321533923303834</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.822101008123975</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.72566371681417</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1065324250036307</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9672566371681416</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9670983752634548</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.66961651917404</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06303514712417382</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9766961651917404</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9770094877487676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.46312684365782</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0854814121182244</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9746312684365781</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9743069063889026</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.97640117994101</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2726988588798062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.89976401179941</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8973558524492395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.69026548672566</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3589523823155711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8469026548672567</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8442758672640622</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.87185010250954</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.633025110885501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7587185010250954</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7534968175095991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.48914782999853</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3663244417247672</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8548914782999854</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8497281188816863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.94707566674452</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2213470067887101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9194707566674453</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9187022469578634</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.74926253687315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4388224529684521</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8474926253687316</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8373972407843668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.35693215339234</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2652536739401209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9135693215339232</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9082374555391108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.14749262536873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6514622335322201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8014749262536874</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7840407485988978</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.047197640118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3460597679096585</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8604719764011799</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8597103364659796</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.22123893805311</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3752273016842082</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8522123893805309</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8455021416145561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.16519174041298</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.372791842771403</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8616519174041297</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8622441114290972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.30832446647462</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.568740330071887</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8230832446647461</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8245049457214231</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.79351032448378</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4620932020945475</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7979351032448377</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7931601791602273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1642243253042883</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9574980920225954</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.90560471976401</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06347803101562022</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9790560471976402</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9792414754056391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.87610619469027</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09504361271192466</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9787610619469026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9786623559252376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.02339408933757</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3588563810479253</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8702339408933757</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8664268088853559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5682,6 +8496,2106 @@
       </c>
       <c r="E17" t="n">
         <v>0.9221768408392388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.53982300884955</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3846685158011193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8353982300884957</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8344944756118938</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>77.61061946902655</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4825965599312136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7761061946902654</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7688574493066105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.13754444242598</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4741337251616642</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8013754444242597</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8022483238008344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.02654867256638</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2918146916432306</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8902654867256636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.886273628820439</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.78171091445428</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4036085897377537</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8578171091445428</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8550782500146022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.94395280235987</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2730488330746691</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9094395280235987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9051103558818699</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.68141592920354</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5299393775950496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8168141592920355</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8095790401345562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.50737463126843</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4213234848342836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8250737463126843</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8220116561193249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.59882005899705</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3924278183258139</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8359882005899705</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8363047112246148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.72566371681415</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.345750706132579</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8672566371681416</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.869930485095917</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.59882005899706</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5314225259023563</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8359882005899705</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8298905173429846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.70501474926253</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5788513474166394</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7970501474926254</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7817929606985518</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.34218289085545</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.132061782196979</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9634218289085545</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9632708758155738</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.78761061946902</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06343893233591492</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9778761061946902</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9779972846773216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.87610619469027</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08662787626899444</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9787610619469026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9786417046069195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.457547210616</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3594476510905507</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8645754721061601</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8614321146101342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.43362831858407</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3517984548661237</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8743362831858408</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8703918667898245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.13655827472556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3484305686278579</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8613655827472556</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8606890307072999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.5103244837758</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.162897813260012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9351032448377581</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9340397940447047</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.22713864306785</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.327369566160875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8722713864306785</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8702693617049265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.71681415929204</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4637503837865855</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8263168020833312</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.11504424778761</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2750074148236308</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.891150442477876</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8870717211287997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.10324483775811</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5008842880352555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8510324483775811</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8412534161708838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.8023598820059</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4525958492537029</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.828023598820059</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8227901616516039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.6283185840708</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4749611744346718</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.836283185840708</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8226305599556991</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.79056047197641</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2688065148113916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.887905604719764</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8849366932546439</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.42477876106196</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5038573416299187</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8442477876106194</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8390751311594966</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.17994100294985</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5188352300062736</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8117994100294986</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8077975267890768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.86430678466077</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1675468640227336</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9386430678466077</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9386670069762124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1073277985508563</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9585155355657904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.0796460176991</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1005454929908107</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9707964601769913</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9701040707534944</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.98629169225802</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.33497431701738</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8798629169225801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.875636578582386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.89675516224189</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3604230355781813</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8489675516224189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8491242822203635</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.05951608577928</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4515805298035654</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8005951608577929</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7988405600513665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3533490173324633</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.856637168141593</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8579201777127647</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.61946902654867</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2436690768639286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9061946902654867</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9038988689383338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.83498127146429</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4106953477710097</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8383498127146428</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8320772508956876</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.12094395280236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2256532003472481</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9112094395280236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9109205627125758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.33038348082596</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5012698644345316</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8233038348082596</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.817343913441411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.54277286135694</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3775922615469123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8454277286135692</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8464467294522219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.63716814159292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3176483154723731</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8663716814159292</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8619004106745127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.51622418879056</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4326906831546997</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8551622418879056</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8531165579597356</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.24483775811208</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5340366118762176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.832448377581121</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8272165390475854</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.6165191740413</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5127091482747346</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7961651917404129</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7947610279775809</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.63716814159292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1296127383788795</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9663716814159292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9662804148890244</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.8731563421829</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09249475699822748</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9687315634218289</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9689249062137609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>98.17109144542772</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07177428723850122</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9817109144542773</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9816768442260345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.31764692312794</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3343465916714315</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8731764692312792</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8713632697608639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.5693215339233</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4179925634797352</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.835693215339233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8317287871120183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>78.14159292035399</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4698275149644663</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7814159292035399</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7781287864787425</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.69026548672566</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3924627222081957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8469026548672567</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8376452443669822</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.79351032448378</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2674437829952997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8979351032448377</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8958279995197526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.30678466076697</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4054724624361067</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8430678466076695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8386861196247433</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.29498525073747</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3010464091406903</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9029498525073747</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8968316690706125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.14454277286136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6388226370171954</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7914454277286136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7809807671105016</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4204700722359121</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8348212724678656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.53982300884955</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3984337828742961</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8353982300884957</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8275882594373142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.96165191740413</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3339962593284629</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8696165191740413</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8687497032266635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.1268436578171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5317327766232969</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8312684365781712</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8272467798256919</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.79073348385366</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5354189401725307</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7879073348385367</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7836427867477245</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.25386032751149</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1267654504122523</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9625386032751149</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9622871935443712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.81710914454277</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07061684519200449</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9781710914454278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9781186066040352</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.78761061946902</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08342617142849727</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9778761061946902</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9776109598144945</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.52509681456299</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3595952260339295</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8652509681456297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8613263289967676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.66666666666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3392430460235725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8656300985026292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.51448541942405</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3610222093450526</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8451448541942405</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8471153517863973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.29340219206048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3576527198141169</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.872934021920605</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8691103473913275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.69616519174041</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3608324037205117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8669616519174042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8639117029193452</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.74926253687315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3930468916757187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8474926253687316</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8451892161612596</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2556101741230426</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9156342182890855</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9133175379059832</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.12353048036748</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.589405640323336</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8012353048036747</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7987351687151574</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.42650022924074</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.452482983081912</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8342650022924074</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.830115781533649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.10254413965518</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3917375479824841</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8410254413965518</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8403669747530469</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.17699115044248</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2546036114183759</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9017699115044249</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9024498189535134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4978493803995662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8418325459312512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.73451327433628</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5860985025200838</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7973451327433628</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7833930319551538</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1966303827231362</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.935015296538632</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1425952754603713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9441710915537822</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.729469978114</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1068461124061287</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9672946997811399</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9666154414977692</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.22682145462619</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3523771254011607</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8722682145462619</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8697979604065931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.01474926253687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3797730459463006</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8501474926253687</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8469302238273876</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79.80198790646978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4613752509777744</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7980198790646977</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7975877185528919</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2560948644919941</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8964601769911503</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8959015112184501</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.8141592920354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3303961616552745</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.868141592920354</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8646607540449986</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.78171091445428</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3436826420899403</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8578171091445428</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8565591262606957</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.53097345132743</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2805561242246767</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9027276717849148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.74631268436579</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4799763188386957</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8374631268436579</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.832750361264266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.1858407079646</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4296334156068042</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.831858407079646</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8298993083635355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.19174041297936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3488826972859291</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8519174041297936</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8448351796092968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.16814159292036</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3493773735050733</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8716814159292035</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.870261237807488</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.53982300884955</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5098910289738948</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8353982300884957</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.834615331866762</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.86109741433749</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6917134185244019</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7286109741433749</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7165858452182385</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.30678466076697</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1572776692851524</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9430678466076696</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9432485083741863</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1109166303962411</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.956047197640118</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9562334338492182</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.75516224188792</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1079344689148153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.967551622418879</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9670884309386188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.66328140093485</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3491654073811313</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8666328140093484</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8639923095320634</v>
       </c>
     </row>
   </sheetData>
